--- a/resultado_consulta.xlsx
+++ b/resultado_consulta.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P179"/>
+  <dimension ref="A1:Q179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>producto</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_producto</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -574,6 +579,11 @@
           <t>Vertical Mixta 2 puertas</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -630,6 +640,11 @@
           <t>Mesa auxiliar caliente</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -686,6 +701,11 @@
           <t>Mesa auxilia bar</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -742,6 +762,11 @@
           <t>Parrilla Industrial</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -798,6 +823,11 @@
           <t>Mueble Lava Traperos</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -854,6 +884,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -910,6 +945,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -966,6 +1006,11 @@
           <t>Plancha Sobre poner</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1022,6 +1067,11 @@
           <t>Estufa de Sobre poner</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1078,6 +1128,11 @@
           <t>Mesa auxiliar caliente</t>
         </is>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1130,6 +1185,11 @@
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1186,6 +1246,11 @@
           <t>Freidora 2 Canastillas Individuales</t>
         </is>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1242,6 +1307,11 @@
           <t>Mesa lavado + Shuts</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1298,6 +1368,11 @@
           <t>Base Chef Refrigerada</t>
         </is>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1354,6 +1429,11 @@
           <t>Mesa con lavado</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1406,6 +1486,11 @@
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1458,6 +1543,11 @@
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1514,6 +1604,11 @@
           <t>Congelador vertical 1 Puerta</t>
         </is>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1570,6 +1665,11 @@
           <t>Congelador vertical 1 Puerta</t>
         </is>
       </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1626,6 +1726,11 @@
           <t>Plancha Industrial</t>
         </is>
       </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1682,6 +1787,11 @@
           <t>Estufa Industrial 6 Puestos</t>
         </is>
       </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1738,6 +1848,11 @@
           <t>Freidora 2 Canastillas</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1790,6 +1905,11 @@
           <t>Nevera 2 Puertas</t>
         </is>
       </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1846,6 +1966,11 @@
           <t>Nevera 2 Puertas</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1902,6 +2027,11 @@
           <t>Freidora 2 Canastillas</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1954,6 +2084,11 @@
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2006,6 +2141,11 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2058,6 +2198,11 @@
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2116,6 +2261,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2172,6 +2322,11 @@
           <t>Mesa auxiliar lavado</t>
         </is>
       </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2230,6 +2385,11 @@
           <t>Vitrina Tipo Loft</t>
         </is>
       </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2286,6 +2446,11 @@
           <t>Campana Industrial cuadrada</t>
         </is>
       </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2332,6 +2497,11 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2388,6 +2558,11 @@
           <t>Repisa Entrada/Salida platos</t>
         </is>
       </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2446,6 +2621,11 @@
           <t>Mesa con lavado</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2504,6 +2684,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2562,6 +2747,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2620,6 +2810,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2676,6 +2871,11 @@
           <t>Mueble Lava Traperos</t>
         </is>
       </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2728,6 +2928,11 @@
           <t>Lamina acero puertas</t>
         </is>
       </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2784,6 +2989,11 @@
           <t>Mesa lavado + Shuts</t>
         </is>
       </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2840,6 +3050,11 @@
           <t>Vitrina Tipo Loft</t>
         </is>
       </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2896,6 +3111,11 @@
           <t>carcamo de bar</t>
         </is>
       </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2952,6 +3172,11 @@
           <t>Vitrina Tipo Loft</t>
         </is>
       </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3008,6 +3233,11 @@
           <t>Repisa Entrada/Salida platos</t>
         </is>
       </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3064,6 +3294,11 @@
           <t>Carcamos de piso</t>
         </is>
       </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3120,6 +3355,11 @@
           <t>Carcamos de piso</t>
         </is>
       </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3176,6 +3416,11 @@
           <t>Carcamos de piso</t>
         </is>
       </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3234,6 +3479,11 @@
           <t>Adicionales Bar</t>
         </is>
       </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3286,6 +3536,11 @@
           <t>Mesa con lavado menaje</t>
         </is>
       </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3342,6 +3597,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3394,6 +3654,11 @@
           <t>Mueble con lavado bar</t>
         </is>
       </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3446,6 +3711,11 @@
           <t>Mueble shuts</t>
         </is>
       </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3498,6 +3768,11 @@
           <t>Campana Industrial cuadrada</t>
         </is>
       </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3550,6 +3825,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3602,6 +3882,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3658,6 +3943,11 @@
           <t>Refrigerador vertical 1 puerta</t>
         </is>
       </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3710,6 +4000,11 @@
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3766,6 +4061,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3822,6 +4122,11 @@
           <t>mueble de lavado con puertas</t>
         </is>
       </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3878,6 +4183,11 @@
           <t>Punto de pago</t>
         </is>
       </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3934,6 +4244,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3990,6 +4305,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4046,6 +4366,11 @@
           <t>Logistica, transporte, accesorios e instalacion</t>
         </is>
       </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4102,6 +4427,11 @@
           <t>Estacion de bar en congelacion</t>
         </is>
       </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4158,6 +4488,11 @@
           <t>Freidora 2 Tanques, 3 canastillas</t>
         </is>
       </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4214,6 +4549,11 @@
           <t>Congelador vertical 1 Puerta</t>
         </is>
       </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4270,6 +4610,11 @@
           <t>Mesa auxiliar lavado</t>
         </is>
       </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4326,6 +4671,11 @@
           <t>Campana Industrial cuadrada</t>
         </is>
       </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4382,6 +4732,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4438,6 +4793,11 @@
           <t>Mesa auxiliar caliente</t>
         </is>
       </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4490,6 +4850,11 @@
           <t>Mesa en Isla</t>
         </is>
       </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4546,6 +4911,11 @@
           <t>Campana Industrial cuadrada</t>
         </is>
       </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4602,6 +4972,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4658,6 +5033,11 @@
           <t>Freidora 2 Tanques, 4 canastillas</t>
         </is>
       </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4714,6 +5094,11 @@
           <t>Congelador Horizontal</t>
         </is>
       </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4770,6 +5155,11 @@
           <t>Mesa de auxiliar  curva Plantillada</t>
         </is>
       </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4826,6 +5216,11 @@
           <t>Motor tipo Hongo</t>
         </is>
       </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4882,6 +5277,11 @@
           <t>Logistica, transporte, accesorios e instalacion</t>
         </is>
       </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4938,6 +5338,11 @@
           <t>Estacion de bar seca</t>
         </is>
       </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4994,6 +5399,11 @@
           <t>Estacion de bar congelacion</t>
         </is>
       </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5050,6 +5460,11 @@
           <t>Arrancador Motor 2Hp</t>
         </is>
       </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5106,6 +5521,11 @@
           <t>Parrilla Industrial a carbon</t>
         </is>
       </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5162,6 +5582,11 @@
           <t>Sistema de ducteria</t>
         </is>
       </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5218,6 +5643,11 @@
           <t>Plancha Sobre poner</t>
         </is>
       </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5274,6 +5704,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5330,6 +5765,11 @@
           <t>Estufa de Sobre poner</t>
         </is>
       </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5386,6 +5826,11 @@
           <t>Campana Industrial cuadrada</t>
         </is>
       </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5442,6 +5887,11 @@
           <t>pozuelo de lavado</t>
         </is>
       </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5494,6 +5944,11 @@
           <t>Base Chef Refrigerada</t>
         </is>
       </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5550,6 +6005,11 @@
           <t>Estacion de bar seca</t>
         </is>
       </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5602,6 +6062,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5654,6 +6119,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5706,6 +6176,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5758,6 +6233,11 @@
           <t>Repisa Entrada/Salida platos</t>
         </is>
       </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5810,6 +6290,11 @@
           <t>Repisa Entrada/Salida platos</t>
         </is>
       </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5862,6 +6347,11 @@
           <t>Mesa auxiliar lavado</t>
         </is>
       </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5914,6 +6404,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5966,6 +6461,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6018,6 +6518,11 @@
           <t>Congelador Horizontal</t>
         </is>
       </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6074,6 +6579,11 @@
           <t>Estufa Enana</t>
         </is>
       </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6130,6 +6640,11 @@
           <t>Mesa con lavado</t>
         </is>
       </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6186,6 +6701,11 @@
           <t>Refrigerador vertical 1 puerta</t>
         </is>
       </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6242,6 +6762,11 @@
           <t>Mesa de apoyo</t>
         </is>
       </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6298,6 +6823,11 @@
           <t>Mueble shuts</t>
         </is>
       </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6354,6 +6884,11 @@
           <t>Mueble con lavado bar</t>
         </is>
       </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6410,6 +6945,11 @@
           <t>Estacion de Licuado</t>
         </is>
       </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6466,6 +7006,11 @@
           <t>Mesa de apoyo</t>
         </is>
       </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6522,6 +7067,11 @@
           <t>Mesa auxiliar caliente</t>
         </is>
       </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6574,6 +7124,11 @@
           <t>Campana Industrial cuadrada</t>
         </is>
       </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6626,6 +7181,11 @@
           <t>Refrigerador vertical 1 puerta</t>
         </is>
       </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6678,6 +7238,11 @@
           <t>Mesa con lavado menaje</t>
         </is>
       </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6730,6 +7295,11 @@
           <t>Escurridor de Loza</t>
         </is>
       </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6786,6 +7356,11 @@
           <t>Vitrina Tipo Loft</t>
         </is>
       </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6842,6 +7417,11 @@
           <t>Campana Industrial cuadrada</t>
         </is>
       </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6898,6 +7478,11 @@
           <t>Punto de pago</t>
         </is>
       </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6954,6 +7539,11 @@
           <t>Vitrina Tipo Loft</t>
         </is>
       </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7010,6 +7600,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7066,6 +7661,11 @@
           <t>Plancha Industrial</t>
         </is>
       </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7122,6 +7722,11 @@
           <t>Estufa Industrial 6 Puestos</t>
         </is>
       </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7178,6 +7783,11 @@
           <t>repisa industrial</t>
         </is>
       </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7234,6 +7844,11 @@
           <t>Escurridor de Loza</t>
         </is>
       </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7290,6 +7905,11 @@
           <t>Mesa en Isla</t>
         </is>
       </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7346,6 +7966,11 @@
           <t>freidora 1 Canastilla</t>
         </is>
       </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7402,6 +8027,11 @@
           <t>Estacion de bar</t>
         </is>
       </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7458,6 +8088,11 @@
           <t>Mesa con lavado</t>
         </is>
       </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7516,6 +8151,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7572,6 +8212,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7628,6 +8273,11 @@
           <t>Estacion de bar congelacion</t>
         </is>
       </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7684,6 +8334,11 @@
           <t>Mueble con puertas</t>
         </is>
       </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7740,6 +8395,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7796,6 +8456,11 @@
           <t>Mesa con lavado</t>
         </is>
       </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7852,6 +8517,11 @@
           <t>Estacion de bar congelacion</t>
         </is>
       </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7910,6 +8580,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7966,6 +8641,11 @@
           <t>Congelador vertical 1 Puerta</t>
         </is>
       </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8024,6 +8704,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8082,6 +8767,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8140,6 +8830,11 @@
           <t>Estanteria industrial</t>
         </is>
       </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8196,6 +8891,11 @@
           <t>Refrigerador Horizontal</t>
         </is>
       </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8252,6 +8952,11 @@
           <t>Mesa auxilia bar</t>
         </is>
       </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8308,6 +9013,11 @@
           <t>Mesa auxilia bar</t>
         </is>
       </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8360,6 +9070,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8412,6 +9127,11 @@
           <t>Base para mantenedor</t>
         </is>
       </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8470,6 +9190,11 @@
           <t>Modulo Mixto a gas</t>
         </is>
       </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8522,6 +9247,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8574,6 +9304,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8626,6 +9361,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8678,6 +9418,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8730,6 +9475,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8782,6 +9532,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8834,6 +9589,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8886,6 +9646,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8938,6 +9703,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8990,6 +9760,11 @@
           <t>repisa industrial</t>
         </is>
       </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9042,6 +9817,11 @@
           <t>Mesa de apoyo</t>
         </is>
       </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9094,6 +9874,11 @@
           <t>Mesa de apoyo</t>
         </is>
       </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9146,6 +9931,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9198,6 +9988,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9250,6 +10045,11 @@
           <t>Mesa de apoyo</t>
         </is>
       </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9302,6 +10102,11 @@
           <t>Mesa con lavado</t>
         </is>
       </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9354,6 +10159,11 @@
           <t>Mesa con lavado</t>
         </is>
       </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9406,6 +10216,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9458,6 +10273,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9510,6 +10330,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9562,6 +10387,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9618,6 +10448,11 @@
           <t>Congelador Horizontal</t>
         </is>
       </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9670,6 +10505,11 @@
           <t>Mesa de trabajo</t>
         </is>
       </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9722,6 +10562,11 @@
           <t>Reformas</t>
         </is>
       </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9778,6 +10623,11 @@
           <t>Baño maria de servicio</t>
         </is>
       </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>coccion</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9834,6 +10684,11 @@
           <t>Campana Industrial cuadrada</t>
         </is>
       </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9890,6 +10745,11 @@
           <t>Tapa removible</t>
         </is>
       </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9942,6 +10802,11 @@
           <t>bandeja recolectora agua</t>
         </is>
       </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9998,6 +10863,11 @@
           <t>Reformas</t>
         </is>
       </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10052,6 +10922,11 @@
           <t>Estacion de bar seca</t>
         </is>
       </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>carpinteria</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10106,6 +10981,11 @@
           <t>Congelador Horizontal</t>
         </is>
       </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10160,6 +11040,11 @@
           <t>Congelador Horizontal</t>
         </is>
       </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10216,6 +11101,11 @@
           <t>Cava de Vinos</t>
         </is>
       </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10272,6 +11162,11 @@
           <t>Cava de Vinos</t>
         </is>
       </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>frio</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/resultado_consulta.xlsx
+++ b/resultado_consulta.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q179"/>
+  <dimension ref="A1:S179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,16 @@
           <t>tipo_producto</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>horas_fabricacion</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>horas_crea_ini</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,6 +594,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -645,6 +665,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -675,7 +705,7 @@
         </is>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>45815.73390306399</v>
@@ -706,11 +736,21 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WH/MO/00024</t>
+          <t>WH/MO/00025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -728,7 +768,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="2" t="n">
-        <v>45848.88908564814</v>
+        <v>45864.48758101852</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -736,7 +776,7 @@
         </is>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>45815.73390306399</v>
@@ -759,19 +799,29 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Parrilla Industrial</t>
+          <t>Estufa Industrial 6 Puestos</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
           <t>coccion</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WH/MO/02497</t>
+          <t>WH/MO/00023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,14 +832,14 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="2" t="n">
-        <v>45843.70549768519</v>
+        <v>45866.73657407407</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -797,47 +847,57 @@
         </is>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45843.66384010884</v>
+        <v>45815.73390306399</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Rovison Adrian Montoya Ramirez</t>
+          <t>Wilner Antonio Marquez Peroza</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Mueble Lava Traperos</t>
+          <t>Plancha Industrial</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>coccion</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WH/MO/00050</t>
+          <t>WH/MO/02497</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alacran de sopetran - la 10</t>
+          <t>Cori - Mall Zona Sur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -850,55 +910,65 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="2" t="n">
-        <v>45824.53481481481</v>
+        <v>45867.95236111111</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45815.73640805638</v>
+        <v>45843.66384010884</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="M7" t="b">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Rovison Adrian Montoya Ramirez</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Estanteria industrial</t>
+          <t>Mueble Lava Traperos</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WH/MO/00051</t>
+          <t>WH/MO/00024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alacran de sopetran - la 10</t>
+          <t>Cori - Mall Zona Sur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -911,18 +981,18 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="2" t="n">
-        <v>45824.53525462963</v>
+        <v>45848.88908564814</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45815.73640805638</v>
+        <v>45815.73390306399</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -933,28 +1003,38 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Wilner Antonio Marquez Peroza</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Estanteria industrial</t>
+          <t>Parrilla Industrial</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>coccion</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WH/MO/00047</t>
+          <t>WH/MO/00050</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -972,7 +1052,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="2" t="n">
-        <v>45824.535625</v>
+        <v>45824.53481481481</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -998,24 +1078,34 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Wilner Antonio Marquez Peroza</t>
+          <t>Cristian Fabian Rincon Soler</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Plancha Sobre poner</t>
+          <t>Estanteria industrial</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>coccion</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WH/MO/00048</t>
+          <t>WH/MO/00051</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1033,7 +1123,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="2" t="n">
-        <v>45824.53591435185</v>
+        <v>45824.53525462963</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1059,24 +1149,34 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Wilner Antonio Marquez Peroza</t>
+          <t>Cristian Fabian Rincon Soler</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Estufa de Sobre poner</t>
+          <t>Estanteria industrial</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>coccion</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WH/MO/00052</t>
+          <t>WH/MO/00047</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1094,7 +1194,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="2" t="n">
-        <v>45824.53636574074</v>
+        <v>45824.535625</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1125,37 +1225,47 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Mesa auxiliar caliente</t>
+          <t>Plancha Sobre poner</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>coccion</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WH/MO/00020</t>
+          <t>WH/MO/00048</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cori - Mall Zona Sur</t>
+          <t>Alacran de sopetran - la 10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="2" t="n">
-        <v>45815.77556712963</v>
+        <v>45824.53591435185</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1166,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45815.73390306399</v>
+        <v>45815.73640805638</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1177,42 +1287,56 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Johnny Ferney Cossio</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
+          <t>Wilner Antonio Marquez Peroza</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Estufa de Sobre poner</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>coccion</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WH/MO/00019</t>
+          <t>WH/MO/00052</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cori - Mall Zona Sur</t>
+          <t>Alacran de sopetran - la 10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" s="2" t="n">
-        <v>45815.77556712963</v>
+        <v>45824.53636574074</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1223,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45815.73390306399</v>
+        <v>45815.73640805638</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1234,46 +1358,56 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Johnny Ferney Cossio</t>
+          <t>Wilner Antonio Marquez Peroza</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Freidora 2 Canastillas Individuales</t>
+          <t>Mesa auxiliar caliente</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>coccion</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WH/MO/00053</t>
+          <t>WH/MO/00020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Alacran de sopetran - la 10</t>
+          <t>Cori - Mall Zona Sur</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" s="2" t="n">
-        <v>45824.53659722222</v>
+        <v>45815.77556712963</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1284,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45815.73640805638</v>
+        <v>45815.73390306399</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1295,46 +1429,52 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Rovison Adrian Montoya Ramirez</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Mesa lavado + Shuts</t>
-        </is>
-      </c>
+          <t>Johnny Ferney Cossio</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>coccion</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WH/MO/00046</t>
+          <t>WH/MO/00019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alacran de sopetran - la 10</t>
+          <t>Cori - Mall Zona Sur</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" s="2" t="n">
-        <v>45824.83079861111</v>
+        <v>45815.77556712963</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1345,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45815.73640805638</v>
+        <v>45815.73390306399</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1356,33 +1496,43 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Leonardo de Jesús Tabares Quiceno</t>
+          <t>Johnny Ferney Cossio</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Base Chef Refrigerada</t>
+          <t>Freidora 2 Canastillas Individuales</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>coccion</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WH/MO/00026</t>
+          <t>WH/MO/00053</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cori - Mall Zona Sur</t>
+          <t>Alacran de sopetran - la 10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1395,7 +1545,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" s="2" t="n">
-        <v>45826.56451388889</v>
+        <v>45824.53659722222</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1406,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45815.73390306399</v>
+        <v>45815.73640805638</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1417,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1426,19 +1576,29 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Mesa con lavado</t>
+          <t>Mesa lavado + Shuts</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WH/MO/00044</t>
+          <t>WH/MO/00046</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1456,7 +1616,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" s="2" t="n">
-        <v>45828.58439814814</v>
+        <v>45824.83079861111</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1482,25 +1642,39 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Johnny Ferney Cossio</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Base Chef Refrigerada</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>coccion</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WH/MO/00045</t>
+          <t>WH/MO/00026</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alacran de sopetran - la 10</t>
+          <t>Cori - Mall Zona Sur</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1513,7 +1687,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" s="2" t="n">
-        <v>45828.58467592593</v>
+        <v>45826.56451388889</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1524,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45815.73640805638</v>
+        <v>45815.73390306399</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1535,42 +1709,56 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Johnny Ferney Cossio</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
+          <t>Rovison Adrian Montoya Ramirez</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Mesa con lavado</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>coccion</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WH/MO/00027</t>
+          <t>WH/MO/00044</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cori - Mall Zona Sur</t>
+          <t>Alacran de sopetran - la 10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" s="2" t="n">
-        <v>45815.7755787037</v>
+        <v>45828.58439814814</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1581,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45815.73390306399</v>
+        <v>45815.73640805638</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1592,46 +1780,52 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Leonardo de Jesús Tabares Quiceno</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Congelador vertical 1 Puerta</t>
-        </is>
-      </c>
+          <t>Johnny Ferney Cossio</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>coccion</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WH/MO/00028</t>
+          <t>WH/MO/00045</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cori - Mall Zona Sur</t>
+          <t>Alacran de sopetran - la 10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" s="2" t="n">
-        <v>45815.7755787037</v>
+        <v>45828.58467592593</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1642,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45815.73390306399</v>
+        <v>45815.73640805638</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1653,28 +1847,34 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Leonardo de Jesús Tabares Quiceno</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Congelador vertical 1 Puerta</t>
-        </is>
-      </c>
+          <t>Johnny Ferney Cossio</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>coccion</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WH/MO/00023</t>
+          <t>WH/MO/00027</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1692,7 +1892,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" s="2" t="n">
-        <v>45815.77556712963</v>
+        <v>45815.7755787037</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1718,24 +1918,34 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Wilner Antonio Marquez Peroza</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Plancha Industrial</t>
+          <t>Congelador vertical 1 Puerta</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>coccion</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WH/MO/00025</t>
+          <t>WH/MO/00028</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1753,7 +1963,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" s="2" t="n">
-        <v>45815.77556712963</v>
+        <v>45815.7755787037</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1779,17 +1989,27 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Wilner Antonio Marquez Peroza</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Estufa Industrial 6 Puestos</t>
+          <t>Congelador vertical 1 Puerta</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>coccion</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -1853,6 +2073,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1910,6 +2140,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1971,6 +2211,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2032,6 +2282,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2089,6 +2349,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2146,6 +2416,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2203,6 +2483,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2266,6 +2556,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2296,7 +2596,7 @@
         </is>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>45815.73390306399</v>
@@ -2325,6 +2625,16 @@
       <c r="Q31" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -2390,29 +2700,47 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WH/MO/00108</t>
+          <t>WH/MO/00090</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AMELIER EXTRACCION ADICIONAL</t>
+          <t>Sin Remordimientos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45869.72046296296</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
       <c r="H33" s="2" t="n">
-        <v>45834.81702546297</v>
+        <v>45818.06313657408</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2423,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45828.61147012139</v>
+        <v>45818.0214181908</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2434,150 +2762,178 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>José Nicolás Díaz Méndez</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Campana Industrial cuadrada</t>
+          <t>Refrigerador Horizontal</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>extraccion</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>331.78</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WH/MO/00017</t>
+          <t>WH/MO/00108</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Reporte de reabastecimiento</t>
+          <t>AMELIER EXTRACCION ADICIONAL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" s="2" t="n">
-        <v>45795.5</v>
+        <v>45834.81702546297</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45795.13777382058</v>
+        <v>45828.61147012139</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="M34" t="b">
         <v>0</v>
       </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>35</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>José Nicolás Díaz Méndez</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Campana Industrial cuadrada</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>extraccion</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WH/MO/00989</t>
+          <t>WH/MO/00017</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Adicionales Alacran</t>
+          <t>Reporte de reabastecimiento</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>cancel</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" s="2" t="n">
-        <v>45840.54678240741</v>
+        <v>45795.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45834.8492929533</v>
+        <v>45795.13777382058</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="M35" t="b">
         <v>0</v>
       </c>
-      <c r="N35" t="n">
-        <v>37</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>José Nicolás Díaz Méndez</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Repisa Entrada/Salida platos</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WH/MO/00066</t>
+          <t>WH/MO/00989</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Guatape Cafeteria</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>26</v>
-      </c>
+          <t>Adicionales Alacran</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
           <t>done</t>
@@ -2587,18 +2943,18 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" s="2" t="n">
-        <v>45826.57006944445</v>
+        <v>45840.54678240741</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45817.96016275855</v>
+        <v>45834.8492929533</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2609,37 +2965,47 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Rovison Adrian Montoya Ramirez</t>
+          <t>José Nicolás Díaz Méndez</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Mesa con lavado</t>
+          <t>Repisa Entrada/Salida platos</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>WH/MO/01012</t>
+          <t>WH/MO/00066</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Isla Clara adicionales</t>
+          <t>Guatape Cafeteria</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2650,18 +3016,18 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" s="2" t="n">
-        <v>45846.69811342593</v>
+        <v>45826.57006944445</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45834.91588943854</v>
+        <v>45817.96016275855</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2672,28 +3038,38 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Rovison Adrian Montoya Ramirez</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Estanteria industrial</t>
+          <t>Mesa con lavado</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WH/MO/01014</t>
+          <t>WH/MO/01012</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2713,7 +3089,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" s="2" t="n">
-        <v>45846.69832175926</v>
+        <v>45846.69811342593</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2739,7 +3115,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Rovison Adrian Montoya Ramirez</t>
+          <t>Cristian Fabian Rincon Soler</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2750,13 +3126,23 @@
       <c r="Q38" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WH/MO/01016</t>
+          <t>WH/MO/01014</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2776,7 +3162,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" s="2" t="n">
-        <v>45846.69840277778</v>
+        <v>45846.69832175926</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2802,7 +3188,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Rovison Adrian Montoya Ramirez</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -2813,21 +3199,33 @@
       <c r="Q39" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>WH/MO/00089</t>
+          <t>WH/MO/01016</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sin Remordimientos</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>Isla Clara adicionales</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>done</t>
@@ -2837,7 +3235,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" s="2" t="n">
-        <v>45842.81577546296</v>
+        <v>45846.69840277778</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2848,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45818.0214181908</v>
+        <v>45834.91588943854</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2859,57 +3257,67 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Rovison Adrian Montoya Ramirez</t>
+          <t>Cristian Fabian Rincon Soler</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Mueble Lava Traperos</t>
+          <t>Estanteria industrial</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>WH/MO/00991</t>
+          <t>WH/MO/00089</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Adicionales Alacran</t>
+          <t>Sin Remordimientos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" s="2" t="n">
-        <v>45834.89096064815</v>
+        <v>45842.81577546296</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45834.8492929533</v>
+        <v>45818.0214181908</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2920,24 +3328,38 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>37</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Rovison Adrian Montoya Ramirez</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Lamina acero puertas</t>
+          <t>Mueble Lava Traperos</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WH/MO/00990</t>
+          <t>WH/MO/00991</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2948,14 +3370,14 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" s="2" t="n">
-        <v>45834.84982638889</v>
+        <v>45834.89096064815</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2979,31 +3401,37 @@
       <c r="N42" t="n">
         <v>37</v>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>José Nicolás Díaz Méndez</t>
-        </is>
-      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Mesa lavado + Shuts</t>
+          <t>Lamina acero puertas</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>WH/MO/02498</t>
+          <t>WH/MO/00990</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Equipos Wok to Fly - GCG</t>
+          <t>Adicionales Alacran</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -3016,55 +3444,65 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" s="2" t="n">
-        <v>45852.50502314815</v>
+        <v>45834.84982638889</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45843.71506541403</v>
+        <v>45834.8492929533</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="M43" t="b">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Leonardo de Jesús Tabares Quiceno</t>
+          <t>José Nicolás Díaz Méndez</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Vitrina Tipo Loft</t>
+          <t>Mesa lavado + Shuts</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>WH/MO/00987</t>
+          <t>WH/MO/02498</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Adicionales Alacran</t>
+          <t>Equipos Wok to Fly - GCG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -3077,55 +3515,65 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" s="2" t="n">
-        <v>45834.85078703704</v>
+        <v>45852.50502314815</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45834.8492929533</v>
+        <v>45843.71506541403</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="M44" t="b">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>carcamo de bar</t>
+          <t>Vitrina Tipo Loft</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>WH/MO/02499</t>
+          <t>WH/MO/00987</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Equipos Wok to Fly - GCG</t>
+          <t>Adicionales Alacran</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -3138,55 +3586,65 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" s="2" t="n">
-        <v>45852.50521990741</v>
+        <v>45834.85078703704</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>45843.71506541403</v>
+        <v>45834.8492929533</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="M45" t="b">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Leonardo de Jesús Tabares Quiceno</t>
+          <t>Cristian Fabian Rincon Soler</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Vitrina Tipo Loft</t>
+          <t>carcamo de bar</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>WH/MO/00988</t>
+          <t>WH/MO/02499</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Adicionales Alacran</t>
+          <t>Equipos Wok to Fly - GCG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -3199,50 +3657,60 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" s="2" t="n">
-        <v>45834.85023148148</v>
+        <v>45852.50521990741</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>45834.8492929533</v>
+        <v>45843.71506541403</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="M46" t="b">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>José Nicolás Díaz Méndez</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Repisa Entrada/Salida platos</t>
+          <t>Vitrina Tipo Loft</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>WH/MO/00985</t>
+          <t>WH/MO/00988</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3260,7 +3728,7 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" s="2" t="n">
-        <v>45834.85053240741</v>
+        <v>45834.85023148148</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3286,24 +3754,34 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Rovison Adrian Montoya Ramirez</t>
+          <t>José Nicolás Díaz Méndez</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Carcamos de piso</t>
+          <t>Repisa Entrada/Salida platos</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>WH/MO/00984</t>
+          <t>WH/MO/00985</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3321,7 +3799,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" s="2" t="n">
-        <v>45834.85105324074</v>
+        <v>45834.85053240741</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3347,7 +3825,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Rovison Adrian Montoya Ramirez</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3358,13 +3836,23 @@
       <c r="Q48" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>WH/MO/00986</t>
+          <t>WH/MO/00984</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3382,7 +3870,7 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" s="2" t="n">
-        <v>45834.85138888889</v>
+        <v>45834.85105324074</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3408,7 +3896,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Rovison Adrian Montoya Ramirez</t>
+          <t>Cristian Fabian Rincon Soler</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3419,23 +3907,31 @@
       <c r="Q49" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>WH/MO/01015</t>
+          <t>WH/MO/00986</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Isla Clara adicionales</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>38</v>
-      </c>
+          <t>Adicionales Alacran</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
           <t>done</t>
@@ -3445,7 +3941,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" s="2" t="n">
-        <v>45834.91645833333</v>
+        <v>45834.85138888889</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3456,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>45834.91588943854</v>
+        <v>45834.8492929533</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3467,46 +3963,58 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Johnny Ferney Cossio</t>
+          <t>Rovison Adrian Montoya Ramirez</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Adicionales Bar</t>
+          <t>Carcamos de piso</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>WH/MO/00032</t>
+          <t>WH/MO/01015</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cori - Mall Zona Sur</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>Isla Clara adicionales</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>38</v>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" s="2" t="n">
-        <v>45815.7755787037</v>
+        <v>45834.91645833333</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3517,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>45815.73390306399</v>
+        <v>45834.91588943854</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3528,24 +4036,38 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>9</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Johnny Ferney Cossio</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Mesa con lavado menaje</t>
+          <t>Adicionales Bar</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>WH/MO/00031</t>
+          <t>WH/MO/00032</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3563,15 +4085,15 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" s="2" t="n">
-        <v>45825.59233796296</v>
+        <v>45866.74125</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>45815.73390306399</v>
@@ -3589,24 +4111,34 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Wilner Antonio Marquez Peroza</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Estanteria industrial</t>
+          <t>Mesa con lavado menaje</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>WH/MO/00038</t>
+          <t>WH/MO/00031</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3617,14 +4149,14 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" s="2" t="n">
-        <v>45815.77559027778</v>
+        <v>45825.59233796296</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3648,22 +4180,36 @@
       <c r="N53" t="n">
         <v>9</v>
       </c>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Cristian Fabian Rincon Soler</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Mueble con lavado bar</t>
+          <t>Estanteria industrial</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>WH/MO/00040</t>
+          <t>WH/MO/00038</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3677,9 +4223,17 @@
           <t>progress</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" s="2" t="n">
+        <v>45866.74216435185</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
       <c r="H54" s="2" t="n">
         <v>45815.77559027778</v>
       </c>
@@ -3705,22 +4259,36 @@
       <c r="N54" t="n">
         <v>9</v>
       </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Wilner Antonio Marquez Peroza</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Mueble shuts</t>
+          <t>Mueble con lavado bar</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>316.00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>WH/MO/00037</t>
+          <t>WH/MO/00040</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3731,22 +4299,22 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" s="2" t="n">
-        <v>45815.77559027778</v>
+        <v>45864.48938657407</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="2" t="n">
         <v>45815.73390306399</v>
@@ -3762,40 +4330,54 @@
       <c r="N55" t="n">
         <v>9</v>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Wilner Antonio Marquez Peroza</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Campana Industrial cuadrada</t>
+          <t>Mueble shuts</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>extraccion</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>WH/MO/01046</t>
+          <t>WH/MO/00042</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Andrés Carne de Res - Aeropuerto</t>
+          <t>Cori - Mall Zona Sur</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" s="2" t="n">
-        <v>45841.76421296296</v>
+        <v>45869.72387731481</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3803,43 +4385,57 @@
         </is>
       </c>
       <c r="J56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>45841.72252275032</v>
+        <v>45815.73390306399</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="M56" t="b">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>40</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>José Nicolás Díaz Méndez</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Mesa de trabajo</t>
+          <t>Estacion de bar en congelacion</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>WH/MO/01044</t>
+          <t>WH/MO/00037</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Andrés Carne de Res - Aeropuerto</t>
+          <t>Cori - Mall Zona Sur</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -3852,51 +4448,61 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" s="2" t="n">
-        <v>45841.76421296296</v>
+        <v>45815.77559027778</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>45841.72252275032</v>
+        <v>45815.73390306399</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="M57" t="b">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Mesa de trabajo</t>
+          <t>Campana Industrial cuadrada</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>extraccion</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WH/MO/00030</t>
+          <t>WH/MO/01046</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cori - Mall Zona Sur</t>
+          <t>Andrés Carne de Res - Aeropuerto</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -3909,125 +4515,141 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" s="2" t="n">
-        <v>45815.7755787037</v>
+        <v>45841.76421296296</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
-        <v>45815.73390306399</v>
+        <v>45841.72252275032</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="M58" t="b">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>9</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Leonardo de Jesús Tabares Quiceno</t>
-        </is>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Refrigerador vertical 1 puerta</t>
+          <t>Mesa de trabajo</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>WH/MO/01021</t>
+          <t>WH/MO/01044</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>El rey de las Salchipapas - Supia</t>
+          <t>Andrés Carne de Res - Aeropuerto</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" s="2" t="n">
-        <v>45836.60439814815</v>
+        <v>45841.76421296296</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n">
-        <v>45836.56273707483</v>
+        <v>45841.72252275032</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="M59" t="b">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>36</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Johnny Ferney Cossio</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Mesa de trabajo</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>coccion</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>WH/MO/00992</t>
+          <t>WH/MO/00030</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Isla Clara Bar nuevo 2</t>
+          <t>Cori - Mall Zona Sur</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" s="2" t="n">
-        <v>45834.85846064815</v>
+        <v>45815.7755787037</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -4038,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>45834.85729054321</v>
+        <v>45815.73390306399</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4049,46 +4671,56 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Johnny Ferney Cossio</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Refrigerador Horizontal</t>
+          <t>Refrigerador vertical 1 puerta</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
           <t>frio</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WH/MO/00994</t>
+          <t>WH/MO/01021</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Isla Clara Bar nuevo 2</t>
+          <t>El rey de las Salchipapas - Supia</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" s="2" t="n">
-        <v>45834.85810185185</v>
+        <v>45836.60439814815</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -4099,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>45834.85729054321</v>
+        <v>45836.56273707483</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -4110,33 +4742,39 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
           <t>Johnny Ferney Cossio</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>mueble de lavado con puertas</t>
-        </is>
-      </c>
+      <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>coccion</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WH/MO/00041</t>
+          <t>WH/MO/00992</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cori - Mall Zona Sur</t>
+          <t>Isla Clara Bar nuevo 2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -4149,18 +4787,18 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" s="2" t="n">
-        <v>45848.86521990741</v>
+        <v>45834.85846064815</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>45815.73390306399</v>
+        <v>45834.85729054321</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -4171,46 +4809,56 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Wilner Antonio Marquez Peroza</t>
+          <t>Johnny Ferney Cossio</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Punto de pago</t>
+          <t>Refrigerador Horizontal</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>WH/MO/00036</t>
+          <t>WH/MO/00994</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cori - Mall Zona Sur</t>
+          <t>Isla Clara Bar nuevo 2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" s="2" t="n">
-        <v>45815.77559027778</v>
+        <v>45834.85810185185</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -4221,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>45815.73390306399</v>
+        <v>45834.85729054321</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4232,28 +4880,38 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Sergio Alejandro Teherán Vergara</t>
+          <t>Johnny Ferney Cossio</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Refrigerador Horizontal</t>
+          <t>mueble de lavado con puertas</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>WH/MO/00035</t>
+          <t>WH/MO/00041</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4264,18 +4922,18 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" s="2" t="n">
-        <v>45815.77559027778</v>
+        <v>45848.86521990741</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -4297,24 +4955,34 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Sergio Alejandro Teherán Vergara</t>
+          <t>Wilner Antonio Marquez Peroza</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Refrigerador Horizontal</t>
+          <t>Punto de pago</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>WH/MO/00043</t>
+          <t>WH/MO/00036</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4358,24 +5026,34 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Juan Manuel Montoya Quiceno</t>
+          <t>Sergio Alejandro Teherán Vergara</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Logistica, transporte, accesorios e instalacion</t>
+          <t>Refrigerador Horizontal</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>WH/MO/00042</t>
+          <t>WH/MO/00035</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4419,29 +5097,39 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>José Nicolás Díaz Méndez</t>
+          <t>Sergio Alejandro Teherán Vergara</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Estacion de bar en congelacion</t>
+          <t>Refrigerador Horizontal</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
           <t>frio</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>WH/MO/01022</t>
+          <t>WH/MO/00043</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>El rey de las Salchipapas - Supia</t>
+          <t>Cori - Mall Zona Sur</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -4454,7 +5142,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" s="2" t="n">
-        <v>45836.60439814815</v>
+        <v>45815.77559027778</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -4465,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>45836.56273707483</v>
+        <v>45815.73390306399</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -4476,33 +5164,43 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Johnny Ferney Cossio</t>
+          <t>Juan Manuel Montoya Quiceno</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Freidora 2 Tanques, 3 canastillas</t>
+          <t>Logistica, transporte, accesorios e instalacion</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>coccion</t>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>WH/MO/00029</t>
+          <t>WH/MO/01022</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cori - Mall Zona Sur</t>
+          <t>El rey de las Salchipapas - Supia</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -4515,7 +5213,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" s="2" t="n">
-        <v>45815.7755787037</v>
+        <v>45836.60439814815</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -4526,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="2" t="n">
-        <v>45815.73390306399</v>
+        <v>45836.56273707483</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -4537,46 +5235,56 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Leonardo de Jesús Tabares Quiceno</t>
+          <t>Johnny Ferney Cossio</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Congelador vertical 1 Puerta</t>
+          <t>Freidora 2 Tanques, 3 canastillas</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>coccion</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WH/MO/00054</t>
+          <t>WH/MO/00029</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Alacran de sopetran - la 10</t>
+          <t>Cori - Mall Zona Sur</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" s="2" t="n">
-        <v>45824.53677083334</v>
+        <v>45815.7755787037</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -4587,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="2" t="n">
-        <v>45815.73640805638</v>
+        <v>45815.73390306399</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -4598,28 +5306,38 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Rovison Adrian Montoya Ramirez</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Mesa auxiliar lavado</t>
+          <t>Congelador vertical 1 Puerta</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WH/MO/00056</t>
+          <t>WH/MO/00054</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4637,7 +5355,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" s="2" t="n">
-        <v>45824.53707175926</v>
+        <v>45824.53677083334</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4663,24 +5381,34 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Sebastian Acosta Caro</t>
+          <t>Rovison Adrian Montoya Ramirez</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Campana Industrial cuadrada</t>
+          <t>Mesa auxiliar lavado</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>extraccion</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WH/MO/00055</t>
+          <t>WH/MO/00056</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4698,7 +5426,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" s="2" t="n">
-        <v>45824.73436342592</v>
+        <v>45824.53707175926</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -4724,42 +5452,52 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Leonardo de Jesús Tabares Quiceno</t>
+          <t>Sebastian Acosta Caro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Refrigerador Horizontal</t>
+          <t>Campana Industrial cuadrada</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>extraccion</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WH/MO/00072</t>
+          <t>WH/MO/00055</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sin Remordimientos</t>
+          <t>Alacran de sopetran - la 10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" s="2" t="n">
-        <v>45818.06311342592</v>
+        <v>45824.73436342592</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -4770,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>45818.0214181908</v>
+        <v>45815.73640805638</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -4781,21 +5519,31 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Mesa auxiliar caliente</t>
+          <t>Refrigerador Horizontal</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -4855,6 +5603,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4885,7 +5643,7 @@
         </is>
       </c>
       <c r="J74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="2" t="n">
         <v>45818.0214181908</v>
@@ -4914,6 +5672,16 @@
       <c r="Q74" t="inlineStr">
         <is>
           <t>extraccion</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -4977,6 +5745,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5038,6 +5816,16 @@
           <t>coccion</t>
         </is>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5099,6 +5887,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5160,6 +5958,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5221,6 +6029,16 @@
           <t>extraccion</t>
         </is>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5282,6 +6100,16 @@
           <t>log</t>
         </is>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5343,6 +6171,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5404,6 +6242,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5465,6 +6313,16 @@
           <t>extraccion</t>
         </is>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5480,22 +6338,22 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" s="2" t="n">
-        <v>45818.06311342592</v>
+        <v>45864.48534722222</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="2" t="n">
         <v>45818.0214181908</v>
@@ -5524,6 +6382,16 @@
       <c r="Q84" t="inlineStr">
         <is>
           <t>coccion</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -5587,6 +6455,16 @@
           <t>extraccion</t>
         </is>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5648,6 +6526,16 @@
           <t>coccion</t>
         </is>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5709,6 +6597,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5770,11 +6668,21 @@
           <t>coccion</t>
         </is>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>WH/MO/00070</t>
+          <t>WH/MO/00072</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5792,7 +6700,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" s="2" t="n">
-        <v>45855.88144675926</v>
+        <v>45864.48559027778</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -5800,7 +6708,7 @@
         </is>
       </c>
       <c r="J89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="2" t="n">
         <v>45818.0214181908</v>
@@ -5818,42 +6726,60 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Wilner Antonio Marquez Peroza</t>
+          <t>Cristian Fabian Rincon Soler</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Campana Industrial cuadrada</t>
+          <t>Mesa auxiliar caliente</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>extraccion</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WH/MO/00063</t>
+          <t>WH/MO/00073</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Alacran de sopetran - la 10 Bar</t>
+          <t>Sin Remordimientos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45864.48581018519</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
       <c r="H90" s="2" t="n">
-        <v>45817.66197916667</v>
+        <v>45818.06311342592</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -5864,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="2" t="n">
-        <v>45815.73651118245</v>
+        <v>45818.0214181908</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -5875,28 +6801,38 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>pozuelo de lavado</t>
+          <t>Base Chef Refrigerada</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>299.15</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>WH/MO/00073</t>
+          <t>WH/MO/00070</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5907,18 +6843,18 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" s="2" t="n">
-        <v>45818.06311342592</v>
+        <v>45855.88144675926</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -5938,27 +6874,41 @@
       <c r="N91" t="n">
         <v>24</v>
       </c>
-      <c r="O91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Wilner Antonio Marquez Peroza</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Base Chef Refrigerada</t>
+          <t>Campana Industrial cuadrada</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>extraccion</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WH/MO/00092</t>
+          <t>WH/MO/00063</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sin Remordimientos</t>
+          <t>Alacran de sopetran - la 10 Bar</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -5971,18 +6921,18 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" s="2" t="n">
-        <v>45859.58070601852</v>
+        <v>45817.66197916667</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="2" t="n">
-        <v>45818.0214181908</v>
+        <v>45815.73651118245</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -5993,28 +6943,38 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>José Nicolás Díaz Méndez</t>
+          <t>Cristian Fabian Rincon Soler</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Estacion de bar seca</t>
+          <t>pozuelo de lavado</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WH/MO/00078</t>
+          <t>WH/MO/00092</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6025,18 +6985,18 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" s="2" t="n">
-        <v>45818.063125</v>
+        <v>45859.58070601852</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -6056,22 +7016,36 @@
       <c r="N93" t="n">
         <v>24</v>
       </c>
-      <c r="O93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>José Nicolás Díaz Méndez</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Refrigerador Horizontal</t>
+          <t>Estacion de bar seca</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>WH/MO/00079</t>
+          <t>WH/MO/00083</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6116,19 +7090,29 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Refrigerador Horizontal</t>
+          <t>Repisa Entrada/Salida platos</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>WH/MO/00080</t>
+          <t>WH/MO/00084</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6173,19 +7157,29 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Refrigerador Horizontal</t>
+          <t>Repisa Entrada/Salida platos</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>WH/MO/00083</t>
+          <t>WH/MO/00077</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6196,18 +7190,18 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" s="2" t="n">
-        <v>45818.063125</v>
+        <v>45856.63329861111</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J96" t="b">
@@ -6227,22 +7221,36 @@
       <c r="N96" t="n">
         <v>24</v>
       </c>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Johnny Ferney Cossio</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Repisa Entrada/Salida platos</t>
+          <t>Estufa Enana</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>coccion</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>WH/MO/00084</t>
+          <t>WH/MO/00087</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6253,18 +7261,18 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" s="2" t="n">
-        <v>45818.063125</v>
+        <v>45856.64879629629</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -6284,22 +7292,36 @@
       <c r="N97" t="n">
         <v>24</v>
       </c>
-      <c r="O97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Cristian Fabian Rincon Soler</t>
+        </is>
+      </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Repisa Entrada/Salida platos</t>
+          <t>Mesa con lavado</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WH/MO/00085</t>
+          <t>WH/MO/00082</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6310,18 +7332,18 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" s="2" t="n">
-        <v>45818.06313657408</v>
+        <v>45859.5822337963</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J98" t="b">
@@ -6341,22 +7363,36 @@
       <c r="N98" t="n">
         <v>24</v>
       </c>
-      <c r="O98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Sergio Alejandro Teherán Vergara</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Mesa auxiliar lavado</t>
+          <t>Refrigerador vertical 1 puerta</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WH/MO/00086</t>
+          <t>WH/MO/00094</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6367,22 +7403,22 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" s="2" t="n">
-        <v>45818.06313657408</v>
+        <v>45864.70881944444</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="2" t="n">
         <v>45818.0214181908</v>
@@ -6398,22 +7434,36 @@
       <c r="N99" t="n">
         <v>24</v>
       </c>
-      <c r="O99" t="inlineStr"/>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Rovison Adrian Montoya Ramirez</t>
+        </is>
+      </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Estanteria industrial</t>
+          <t>Mueble con lavado bar</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WH/MO/00090</t>
+          <t>WH/MO/00095</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6424,22 +7474,22 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" s="2" t="n">
-        <v>45818.06313657408</v>
+        <v>45863.71195601852</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="2" t="n">
         <v>45818.0214181908</v>
@@ -6455,22 +7505,36 @@
       <c r="N100" t="n">
         <v>24</v>
       </c>
-      <c r="O100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Cristian Fabian Rincon Soler</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Refrigerador Horizontal</t>
+          <t>Mesa de apoyo</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WH/MO/00093</t>
+          <t>WH/MO/00091</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6481,22 +7545,22 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" s="2" t="n">
-        <v>45818.06313657408</v>
+        <v>45863.71165509259</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" s="2" t="n">
         <v>45818.0214181908</v>
@@ -6512,22 +7576,36 @@
       <c r="N101" t="n">
         <v>24</v>
       </c>
-      <c r="O101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Cristian Fabian Rincon Soler</t>
+        </is>
+      </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Congelador Horizontal</t>
+          <t>Mesa de apoyo</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>WH/MO/00077</t>
+          <t>WH/MO/00081</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6545,7 +7623,7 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" s="2" t="n">
-        <v>45856.63329861111</v>
+        <v>45863.56730324074</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -6571,24 +7649,34 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Johnny Ferney Cossio</t>
+          <t>Cristian Fabian Rincon Soler</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Estufa Enana</t>
+          <t>Mesa auxiliar caliente</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>coccion</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WH/MO/00087</t>
+          <t>WH/MO/00088</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6606,7 +7694,7 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" s="2" t="n">
-        <v>45856.64879629629</v>
+        <v>45864.49458333333</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -6632,24 +7720,34 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Wilner Antonio Marquez Peroza</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Mesa con lavado</t>
+          <t>Mueble shuts</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>WH/MO/00082</t>
+          <t>WH/MO/00085</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6663,11 +7761,19 @@
           <t>done</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="E104" s="2" t="n">
+        <v>45867.53766203704</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
       <c r="H104" s="2" t="n">
-        <v>45859.5822337963</v>
+        <v>45867.92203703704</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -6693,24 +7799,34 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Sergio Alejandro Teherán Vergara</t>
+          <t>Cristian Fabian Rincon Soler</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Refrigerador vertical 1 puerta</t>
+          <t>Mesa auxiliar lavado</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>312.40</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WH/MO/00095</t>
+          <t>WH/MO/00096</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6721,22 +7837,22 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" s="2" t="n">
-        <v>45818.06314814815</v>
+        <v>45869.6746412037</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="2" t="n">
         <v>45818.0214181908</v>
@@ -6754,24 +7870,34 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>José Nicolás Díaz Méndez</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Mesa de apoyo</t>
+          <t>Estacion de Licuado</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WH/MO/00088</t>
+          <t>WH/MO/00086</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6782,22 +7908,30 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>progress</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45867.53793981481</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
       <c r="H106" s="2" t="n">
-        <v>45818.06313657408</v>
+        <v>45869.67706018518</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="2" t="n">
         <v>45818.0214181908</v>
@@ -6815,24 +7949,34 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Wilner Antonio Marquez Peroza</t>
+          <t>Cristian Fabian Rincon Soler</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Mueble shuts</t>
+          <t>Estanteria industrial</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>312.40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WH/MO/00094</t>
+          <t>WH/MO/00078</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6846,11 +7990,19 @@
           <t>progress</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+      <c r="E107" s="2" t="n">
+        <v>45869.72001157407</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
       <c r="H107" s="2" t="n">
-        <v>45818.06314814815</v>
+        <v>45818.063125</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -6876,24 +8028,34 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Rovison Adrian Montoya Ramirez</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Mueble con lavado bar</t>
+          <t>Refrigerador Horizontal</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>331.77</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WH/MO/00096</t>
+          <t>WH/MO/00079</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6907,11 +8069,19 @@
           <t>progress</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+      <c r="E108" s="2" t="n">
+        <v>45869.72021990741</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
       <c r="H108" s="2" t="n">
-        <v>45818.06314814815</v>
+        <v>45818.063125</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -6937,24 +8107,34 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>José Nicolás Díaz Méndez</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Estacion de Licuado</t>
+          <t>Refrigerador Horizontal</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>331.78</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WH/MO/00091</t>
+          <t>WH/MO/00080</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6968,11 +8148,19 @@
           <t>progress</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
+      <c r="E109" s="2" t="n">
+        <v>45869.72034722222</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
       <c r="H109" s="2" t="n">
-        <v>45818.06313657408</v>
+        <v>45818.063125</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -6998,24 +8186,34 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Mesa de apoyo</t>
+          <t>Refrigerador Horizontal</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>331.78</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WH/MO/00081</t>
+          <t>WH/MO/00093</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7029,11 +8227,19 @@
           <t>progress</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="E110" s="2" t="n">
+        <v>45869.72059027778</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
       <c r="H110" s="2" t="n">
-        <v>45818.063125</v>
+        <v>45818.06313657408</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -7059,17 +8265,27 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Leonardo de Jesús Tabares Quiceno</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Mesa auxiliar caliente</t>
+          <t>Congelador Horizontal</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>331.78</t>
         </is>
       </c>
     </row>
@@ -7129,6 +8345,16 @@
           <t>extraccion</t>
         </is>
       </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7186,6 +8412,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7243,6 +8479,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7300,6 +8546,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7361,6 +8617,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7422,6 +8688,16 @@
           <t>extraccion</t>
         </is>
       </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7483,6 +8759,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7544,6 +8830,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7605,6 +8901,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7666,6 +8972,16 @@
           <t>coccion</t>
         </is>
       </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7727,6 +9043,16 @@
           <t>coccion</t>
         </is>
       </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7788,6 +9114,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7849,6 +9185,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7910,6 +9256,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7971,6 +9327,16 @@
           <t>coccion</t>
         </is>
       </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8032,6 +9398,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8093,6 +9469,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8156,6 +9542,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8186,7 +9582,7 @@
         </is>
       </c>
       <c r="J129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="2" t="n">
         <v>45821.89624182424</v>
@@ -8215,6 +9611,16 @@
       <c r="Q129" t="inlineStr">
         <is>
           <t>frio</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -8247,7 +9653,7 @@
         </is>
       </c>
       <c r="J130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" s="2" t="n">
         <v>45821.89624182424</v>
@@ -8276,6 +9682,16 @@
       <c r="Q130" t="inlineStr">
         <is>
           <t>frio</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -8339,6 +9755,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8369,7 +9795,7 @@
         </is>
       </c>
       <c r="J132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" s="2" t="n">
         <v>45821.89624182424</v>
@@ -8398,6 +9824,16 @@
       <c r="Q132" t="inlineStr">
         <is>
           <t>frio</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -8461,6 +9897,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8491,7 +9937,7 @@
         </is>
       </c>
       <c r="J134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" s="2" t="n">
         <v>45821.89624182424</v>
@@ -8520,6 +9966,16 @@
       <c r="Q134" t="inlineStr">
         <is>
           <t>frio</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -8585,6 +10041,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8615,7 +10081,7 @@
         </is>
       </c>
       <c r="J136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" s="2" t="n">
         <v>45821.89624182424</v>
@@ -8644,6 +10110,16 @@
       <c r="Q136" t="inlineStr">
         <is>
           <t>frio</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -8709,6 +10185,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8772,6 +10258,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8835,29 +10331,41 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>WH/MO/00034</t>
+          <t>WH/MO/00107</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cori - Mall Zona Sur</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>Manolo Bakery - Supia</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>32</v>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" s="2" t="n">
-        <v>45815.77559027778</v>
+        <v>45821.95346064815</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -8868,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="2" t="n">
-        <v>45815.73390306399</v>
+        <v>45821.91180229327</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -8879,46 +10387,56 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Sergio Alejandro Teherán Vergara</t>
+          <t>Johnny Ferney Cossio</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>Refrigerador Horizontal</t>
+          <t>Modulo Mixto a gas</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>coccion</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>WH/MO/00105</t>
+          <t>WH/MO/00034</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Pantera Armenia</t>
+          <t>Cori - Mall Zona Sur</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" s="2" t="n">
-        <v>45826.55668981482</v>
+        <v>45815.77559027778</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -8929,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="2" t="n">
-        <v>45821.89624182424</v>
+        <v>45815.73390306399</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -8940,28 +10458,38 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Cristian Fabian Rincon Soler</t>
+          <t>Sergio Alejandro Teherán Vergara</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>Mesa auxilia bar</t>
+          <t>Refrigerador Horizontal</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>carpinteria</t>
+          <t>frio</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>WH/MO/00104</t>
+          <t>WH/MO/00105</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -8979,7 +10507,7 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" s="2" t="n">
-        <v>45826.556875</v>
+        <v>45826.55668981482</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -9018,68 +10546,92 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>WH/MO/01027</t>
+          <t>WH/MO/00104</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Andrés Carne de Res - Aeropuerto</t>
+          <t>Pantera Armenia</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" s="2" t="n">
-        <v>45841.76418981481</v>
+        <v>45826.556875</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J143" t="b">
         <v>0</v>
       </c>
       <c r="K143" s="2" t="n">
-        <v>45841.72252275032</v>
+        <v>45821.89624182424</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="M143" t="b">
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>40</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Cristian Fabian Rincon Soler</t>
+        </is>
+      </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>Mesa de trabajo</t>
+          <t>Mesa auxilia bar</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>WH/MO/01041</t>
+          <t>WH/MO/01027</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -9097,7 +10649,7 @@
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" s="2" t="n">
-        <v>45841.76420138889</v>
+        <v>45841.76418981481</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -9124,29 +10676,37 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>Base para mantenedor</t>
+          <t>Mesa de trabajo</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>WH/MO/00107</t>
+          <t>WH/MO/01041</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Manolo Bakery - Supia</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>32</v>
-      </c>
+          <t>Andrés Carne de Res - Aeropuerto</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
           <t>confirmed</t>
@@ -9156,43 +10716,49 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" s="2" t="n">
-        <v>45821.95346064815</v>
+        <v>45841.76420138889</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J145" t="b">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="n">
-        <v>45821.91180229327</v>
+        <v>45841.72252275032</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="M145" t="b">
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>33</v>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>Wilner Antonio Marquez Peroza</t>
-        </is>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>Modulo Mixto a gas</t>
+          <t>Base para mantenedor</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>coccion</t>
+          <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -9252,6 +10818,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9309,6 +10885,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9366,6 +10952,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9423,6 +11019,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9480,6 +11086,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9537,6 +11153,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9594,6 +11220,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9651,6 +11287,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9708,6 +11354,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9765,6 +11421,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9822,6 +11488,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9879,6 +11555,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9936,6 +11622,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9993,6 +11689,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10050,6 +11756,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10107,6 +11823,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10164,6 +11890,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10221,6 +11957,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10278,6 +12024,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10335,6 +12091,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10392,6 +12158,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10453,6 +12229,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10510,6 +12296,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10567,6 +12363,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10628,6 +12434,16 @@
           <t>coccion</t>
         </is>
       </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10689,6 +12505,16 @@
           <t>extraccion</t>
         </is>
       </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10719,7 +12545,7 @@
         </is>
       </c>
       <c r="J172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" s="2" t="n">
         <v>45849.67606475767</v>
@@ -10748,6 +12574,16 @@
       <c r="Q172" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -10807,6 +12643,16 @@
           <t>carpinteria</t>
         </is>
       </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10822,14 +12668,14 @@
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" s="2" t="n">
-        <v>45849.72616898148</v>
+        <v>45863.69909722222</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -10837,7 +12683,7 @@
         </is>
       </c>
       <c r="J174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174" s="2" t="n">
         <v>45849.68450789143</v>
@@ -10855,7 +12701,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Sergio Alejandro Teherán Vergara</t>
+          <t>Sebastian Acosta Caro</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -10866,6 +12712,16 @@
       <c r="Q174" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -10885,12 +12741,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45869.71905092592</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
       <c r="H175" s="2" t="n">
         <v>45850.72768518519</v>
       </c>
@@ -10916,7 +12780,11 @@
       <c r="N175" t="n">
         <v>28</v>
       </c>
-      <c r="O175" t="inlineStr"/>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>José Nicolás Díaz Méndez</t>
+        </is>
+      </c>
       <c r="P175" t="inlineStr">
         <is>
           <t>Estacion de bar seca</t>
@@ -10925,6 +12793,16 @@
       <c r="Q175" t="inlineStr">
         <is>
           <t>carpinteria</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>119.75</t>
         </is>
       </c>
     </row>
@@ -10986,6 +12864,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11045,6 +12933,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -11106,6 +13004,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11167,6 +13075,16 @@
           <t>frio</t>
         </is>
       </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
